--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema3a</t>
   </si>
   <si>
     <t>Plxna2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H2">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I2">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J2">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.23928166666666</v>
+        <v>40.25420133333333</v>
       </c>
       <c r="N2">
-        <v>126.717845</v>
+        <v>120.762604</v>
       </c>
       <c r="O2">
-        <v>0.7297675404946526</v>
+        <v>0.4854671023051697</v>
       </c>
       <c r="P2">
-        <v>0.7297675404946528</v>
+        <v>0.4854671023051695</v>
       </c>
       <c r="Q2">
-        <v>43.37857365154056</v>
+        <v>33.01145074036622</v>
       </c>
       <c r="R2">
-        <v>390.407162863865</v>
+        <v>297.103056663296</v>
       </c>
       <c r="S2">
-        <v>0.1483283078008475</v>
+        <v>0.02092991358117641</v>
       </c>
       <c r="T2">
-        <v>0.1483283078008475</v>
+        <v>0.0209299135811764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H3">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I3">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J3">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.874952</v>
       </c>
       <c r="O3">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450057</v>
       </c>
       <c r="P3">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450056</v>
       </c>
       <c r="Q3">
-        <v>4.749730610109334</v>
+        <v>3.792832212138667</v>
       </c>
       <c r="R3">
-        <v>42.747575490984</v>
+        <v>34.135489909248</v>
       </c>
       <c r="S3">
-        <v>0.01624118647991516</v>
+        <v>0.002404730741836031</v>
       </c>
       <c r="T3">
-        <v>0.01624118647991516</v>
+        <v>0.00240473074183603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H4">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I4">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J4">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.864288333333333</v>
+        <v>36.68940733333334</v>
       </c>
       <c r="N4">
-        <v>26.592865</v>
+        <v>110.068222</v>
       </c>
       <c r="O4">
-        <v>0.1531481985489599</v>
+        <v>0.4424755596543956</v>
       </c>
       <c r="P4">
-        <v>0.15314819854896</v>
+        <v>0.4424755596543954</v>
       </c>
       <c r="Q4">
-        <v>9.103378873022777</v>
+        <v>30.0880534890809</v>
       </c>
       <c r="R4">
-        <v>81.93040985720499</v>
+        <v>270.7924814017281</v>
       </c>
       <c r="S4">
-        <v>0.03112801251494124</v>
+        <v>0.0190764218242076</v>
       </c>
       <c r="T4">
-        <v>0.03112801251494125</v>
+        <v>0.0190764218242076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H5">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I5">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J5">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.151907</v>
+        <v>1.349902</v>
       </c>
       <c r="N5">
-        <v>6.455721</v>
+        <v>4.049706</v>
       </c>
       <c r="O5">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="P5">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="Q5">
-        <v>2.209948952906334</v>
+        <v>1.107020432682667</v>
       </c>
       <c r="R5">
-        <v>19.889540576157</v>
+        <v>9.963183894144002</v>
       </c>
       <c r="S5">
-        <v>0.007556679736499584</v>
+        <v>0.0007018728795312463</v>
       </c>
       <c r="T5">
-        <v>0.007556679736499584</v>
+        <v>0.0007018728795312461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I6">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J6">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.23928166666666</v>
+        <v>40.25420133333333</v>
       </c>
       <c r="N6">
-        <v>126.717845</v>
+        <v>120.762604</v>
       </c>
       <c r="O6">
-        <v>0.7297675404946526</v>
+        <v>0.4854671023051697</v>
       </c>
       <c r="P6">
-        <v>0.7297675404946528</v>
+        <v>0.4854671023051695</v>
       </c>
       <c r="Q6">
-        <v>57.36226800082556</v>
+        <v>54.66646670897511</v>
       </c>
       <c r="R6">
-        <v>516.2604120074301</v>
+        <v>491.998200380776</v>
       </c>
       <c r="S6">
-        <v>0.196144027522191</v>
+        <v>0.03465962259598692</v>
       </c>
       <c r="T6">
-        <v>0.196144027522191</v>
+        <v>0.03465962259598691</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I7">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J7">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.874952</v>
       </c>
       <c r="O7">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450057</v>
       </c>
       <c r="P7">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450056</v>
       </c>
       <c r="Q7">
         <v>6.280873188165335</v>
@@ -883,10 +883,10 @@
         <v>56.52785869348801</v>
       </c>
       <c r="S7">
-        <v>0.0214767617533038</v>
+        <v>0.003982197997796024</v>
       </c>
       <c r="T7">
-        <v>0.0214767617533038</v>
+        <v>0.003982197997796023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I8">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J8">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.864288333333333</v>
+        <v>36.68940733333334</v>
       </c>
       <c r="N8">
-        <v>26.592865</v>
+        <v>110.068222</v>
       </c>
       <c r="O8">
-        <v>0.1531481985489599</v>
+        <v>0.4424755596543956</v>
       </c>
       <c r="P8">
-        <v>0.15314819854896</v>
+        <v>0.4424755596543954</v>
       </c>
       <c r="Q8">
-        <v>12.03798130436778</v>
+        <v>49.82536476009646</v>
       </c>
       <c r="R8">
-        <v>108.34183173931</v>
+        <v>448.4282828408681</v>
       </c>
       <c r="S8">
-        <v>0.04116256589159884</v>
+        <v>0.03159026807944044</v>
       </c>
       <c r="T8">
-        <v>0.04116256589159885</v>
+        <v>0.03159026807944043</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I9">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J9">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.151907</v>
+        <v>1.349902</v>
       </c>
       <c r="N9">
-        <v>6.455721</v>
+        <v>4.049706</v>
       </c>
       <c r="O9">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="P9">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="Q9">
-        <v>2.922357132419334</v>
+        <v>1.833209212929334</v>
       </c>
       <c r="R9">
-        <v>26.301214191774</v>
+        <v>16.498882916364</v>
       </c>
       <c r="S9">
-        <v>0.009992681910741036</v>
+        <v>0.001162290948816439</v>
       </c>
       <c r="T9">
-        <v>0.009992681910741036</v>
+        <v>0.001162290948816438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.667646666666666</v>
+        <v>16.8273</v>
       </c>
       <c r="H10">
-        <v>8.002939999999999</v>
+        <v>50.4819</v>
       </c>
       <c r="I10">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337277</v>
       </c>
       <c r="J10">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.23928166666666</v>
+        <v>40.25420133333333</v>
       </c>
       <c r="N10">
-        <v>126.717845</v>
+        <v>120.762604</v>
       </c>
       <c r="O10">
-        <v>0.7297675404946526</v>
+        <v>0.4854671023051697</v>
       </c>
       <c r="P10">
-        <v>0.7297675404946528</v>
+        <v>0.4854671023051695</v>
       </c>
       <c r="Q10">
-        <v>112.6794789404778</v>
+        <v>677.3695220963998</v>
       </c>
       <c r="R10">
-        <v>1014.1153104643</v>
+        <v>6096.325698867598</v>
       </c>
       <c r="S10">
-        <v>0.3852952051716142</v>
+        <v>0.4294656927229346</v>
       </c>
       <c r="T10">
-        <v>0.3852952051716143</v>
+        <v>0.4294656927229346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.667646666666666</v>
+        <v>16.8273</v>
       </c>
       <c r="H11">
-        <v>8.002939999999999</v>
+        <v>50.4819</v>
       </c>
       <c r="I11">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337277</v>
       </c>
       <c r="J11">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337278</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.874952</v>
       </c>
       <c r="O11">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450057</v>
       </c>
       <c r="P11">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450056</v>
       </c>
       <c r="Q11">
-        <v>12.33782315098667</v>
+        <v>77.82599326319999</v>
       </c>
       <c r="R11">
-        <v>111.04040835888</v>
+        <v>700.4339393688</v>
       </c>
       <c r="S11">
-        <v>0.04218784242729428</v>
+        <v>0.04934322111982173</v>
       </c>
       <c r="T11">
-        <v>0.04218784242729428</v>
+        <v>0.04934322111982173</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.667646666666666</v>
+        <v>16.8273</v>
       </c>
       <c r="H12">
-        <v>8.002939999999999</v>
+        <v>50.4819</v>
       </c>
       <c r="I12">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337277</v>
       </c>
       <c r="J12">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337278</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.864288333333333</v>
+        <v>36.68940733333334</v>
       </c>
       <c r="N12">
-        <v>26.592865</v>
+        <v>110.068222</v>
       </c>
       <c r="O12">
-        <v>0.1531481985489599</v>
+        <v>0.4424755596543956</v>
       </c>
       <c r="P12">
-        <v>0.15314819854896</v>
+        <v>0.4424755596543954</v>
       </c>
       <c r="Q12">
-        <v>23.64678922478888</v>
+        <v>617.3836640202001</v>
       </c>
       <c r="R12">
-        <v>212.8211030231</v>
+        <v>5556.4529761818</v>
       </c>
       <c r="S12">
-        <v>0.08085762014241987</v>
+        <v>0.3914334706463581</v>
       </c>
       <c r="T12">
-        <v>0.08085762014241989</v>
+        <v>0.3914334706463581</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.8273</v>
+      </c>
+      <c r="H13">
+        <v>50.4819</v>
+      </c>
+      <c r="I13">
+        <v>0.8846442749337277</v>
+      </c>
+      <c r="J13">
+        <v>0.8846442749337278</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.349902</v>
+      </c>
+      <c r="N13">
+        <v>4.049706</v>
+      </c>
+      <c r="O13">
+        <v>0.01627986621593436</v>
+      </c>
+      <c r="P13">
+        <v>0.01627986621593436</v>
+      </c>
+      <c r="Q13">
+        <v>22.7152059246</v>
+      </c>
+      <c r="R13">
+        <v>204.4368533214</v>
+      </c>
+      <c r="S13">
+        <v>0.01440189044461334</v>
+      </c>
+      <c r="T13">
+        <v>0.01440189044461334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.667646666666666</v>
-      </c>
-      <c r="H13">
-        <v>8.002939999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.5279697763899619</v>
-      </c>
-      <c r="J13">
-        <v>0.5279697763899619</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.151907</v>
-      </c>
-      <c r="N13">
-        <v>6.455721</v>
-      </c>
-      <c r="O13">
-        <v>0.03717847029587412</v>
-      </c>
-      <c r="P13">
-        <v>0.03717847029587412</v>
-      </c>
-      <c r="Q13">
-        <v>5.740527535526666</v>
-      </c>
-      <c r="R13">
-        <v>51.66474781973999</v>
-      </c>
-      <c r="S13">
-        <v>0.0196291086486335</v>
-      </c>
-      <c r="T13">
-        <v>0.0196291086486335</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.016138</v>
+      </c>
+      <c r="H14">
+        <v>0.048414</v>
+      </c>
+      <c r="I14">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J14">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>40.25420133333333</v>
+      </c>
+      <c r="N14">
+        <v>120.762604</v>
+      </c>
+      <c r="O14">
+        <v>0.4854671023051697</v>
+      </c>
+      <c r="P14">
+        <v>0.4854671023051695</v>
+      </c>
+      <c r="Q14">
+        <v>0.6496223011173332</v>
+      </c>
+      <c r="R14">
+        <v>5.846600710055999</v>
+      </c>
+      <c r="S14">
+        <v>0.0004118734050716823</v>
+      </c>
+      <c r="T14">
+        <v>0.0004118734050716822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.016138</v>
+      </c>
+      <c r="H15">
+        <v>0.048414</v>
+      </c>
+      <c r="I15">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J15">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.624984</v>
+      </c>
+      <c r="N15">
+        <v>13.874952</v>
+      </c>
+      <c r="O15">
+        <v>0.05577747182450057</v>
+      </c>
+      <c r="P15">
+        <v>0.05577747182450056</v>
+      </c>
+      <c r="Q15">
+        <v>0.07463799179200001</v>
+      </c>
+      <c r="R15">
+        <v>0.671741926128</v>
+      </c>
+      <c r="S15">
+        <v>4.732196504678012E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.732196504678011E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.016138</v>
+      </c>
+      <c r="H16">
+        <v>0.048414</v>
+      </c>
+      <c r="I16">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J16">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>36.68940733333334</v>
+      </c>
+      <c r="N16">
+        <v>110.068222</v>
+      </c>
+      <c r="O16">
+        <v>0.4424755596543956</v>
+      </c>
+      <c r="P16">
+        <v>0.4424755596543954</v>
+      </c>
+      <c r="Q16">
+        <v>0.5920936555453334</v>
+      </c>
+      <c r="R16">
+        <v>5.328842899908</v>
+      </c>
+      <c r="S16">
+        <v>0.0003753991043893511</v>
+      </c>
+      <c r="T16">
+        <v>0.0003753991043893511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.016138</v>
+      </c>
+      <c r="H17">
+        <v>0.048414</v>
+      </c>
+      <c r="I17">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J17">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.349902</v>
+      </c>
+      <c r="N17">
+        <v>4.049706</v>
+      </c>
+      <c r="O17">
+        <v>0.01627986621593436</v>
+      </c>
+      <c r="P17">
+        <v>0.01627986621593436</v>
+      </c>
+      <c r="Q17">
+        <v>0.021784718476</v>
+      </c>
+      <c r="R17">
+        <v>0.196062466284</v>
+      </c>
+      <c r="S17">
+        <v>1.381194297333322E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.381194297333322E-05</v>
       </c>
     </row>
   </sheetData>
